--- a/biology/Botanique/Dioncophyllaceae/Dioncophyllaceae.xlsx
+++ b/biology/Botanique/Dioncophyllaceae/Dioncophyllaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Dioncophyllacées regroupe des plantes dicotylédones. Selon Watson &amp; Dallwitz elle comprend 3 espèces réparties en 3 genres.
 Ce sont des lianes ou des arbustes carnivores, des régions tropicales d'Afrique de l'Ouest.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Dioncophyllum composé des mots grecs δίς / dis, deux fois, ὄγκος / onkos, crochet, et φύλλον / phullon, feuille, en référence aux feuilles de certaines espèces de ce genre, munies, à leur apex, de deux crochets, leur permettant de grimper sur des végétaux hôtes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Dioncophyllum composé des mots grecs δίς / dis, deux fois, ὄγκος / onkos, crochet, et φύλλον / phullon, feuille, en référence aux feuilles de certaines espèces de ce genre, munies, à leur apex, de deux crochets, leur permettant de grimper sur des végétaux hôtes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique les situe dans l'ordre des Caryophyllales.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Triphyophyllum
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (3 mai 2010)[2], NCBI  (3 mai 2010)[3] et DELTA Angio           (3 mai 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (3 mai 2010), NCBI  (3 mai 2010) et DELTA Angio           (3 mai 2010) :
 genre Dioncophyllum
 genre Triphyophyllum
 genre Habropetalum</t>
@@ -639,9 +659,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (3 mai 2010)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (3 mai 2010) :
 genre Dioncophyllum
 Dioncophyllum tholloni
 genre Habropetalum
